--- a/Financials/Quarterly/BASFY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/BASFY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D134CE17-396E-47F4-A26A-2C5A7003D9A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASFY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>BASFY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,153 +689,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39238100</v>
+        <v>32814800</v>
       </c>
       <c r="E8" s="3">
-        <v>19539200</v>
+        <v>17509800</v>
       </c>
       <c r="F8" s="3">
-        <v>36803600</v>
+        <v>35323600</v>
       </c>
       <c r="G8" s="3">
-        <v>17906500</v>
+        <v>17615200</v>
       </c>
       <c r="H8" s="3">
-        <v>38877800</v>
+        <v>33375800</v>
       </c>
       <c r="I8" s="3">
+        <v>16286800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>35315800</v>
+      </c>
+      <c r="K8" s="3">
         <v>19786900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>17426400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>16448600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26688900</v>
+        <v>24214800</v>
       </c>
       <c r="E9" s="3">
-        <v>13215900</v>
+        <v>12466400</v>
       </c>
       <c r="F9" s="3">
-        <v>24942300</v>
+        <v>24257400</v>
       </c>
       <c r="G9" s="3">
-        <v>12232300</v>
+        <v>12021000</v>
       </c>
       <c r="H9" s="3">
-        <v>26622000</v>
+        <v>22626100</v>
       </c>
       <c r="I9" s="3">
+        <v>11083000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24038600</v>
+      </c>
+      <c r="K9" s="3">
         <v>13477700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>12032700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11355400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12549200</v>
+        <v>8600100</v>
       </c>
       <c r="E10" s="3">
-        <v>6323300</v>
+        <v>5043300</v>
       </c>
       <c r="F10" s="3">
-        <v>11861400</v>
+        <v>11066200</v>
       </c>
       <c r="G10" s="3">
-        <v>5674200</v>
+        <v>5594200</v>
       </c>
       <c r="H10" s="3">
-        <v>12255800</v>
+        <v>10749800</v>
       </c>
       <c r="I10" s="3">
+        <v>5203800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11277100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6309200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5393700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5093200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +873,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1029400</v>
+        <v>1291400</v>
       </c>
       <c r="E12" s="3">
-        <v>502400</v>
+        <v>571100</v>
       </c>
       <c r="F12" s="3">
-        <v>1169100</v>
+        <v>973900</v>
       </c>
       <c r="G12" s="3">
-        <v>534100</v>
+        <v>475700</v>
       </c>
       <c r="H12" s="3">
-        <v>1047000</v>
+        <v>1086100</v>
       </c>
       <c r="I12" s="3">
+        <v>503800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>981700</v>
+      </c>
+      <c r="K12" s="3">
         <v>497700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>632700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,66 +939,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>203100</v>
+        <v>268200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3">
-        <v>200700</v>
+        <v>194100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>191300</v>
+        <v>191900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>182900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>35200</v>
+        <v>47100</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="3">
-        <v>214800</v>
+        <v>33700</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>150200</v>
+        <v>205300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+      <c r="J15" s="3">
+        <v>143600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +1025,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33589700</v>
+        <v>31444900</v>
       </c>
       <c r="E17" s="3">
-        <v>16580100</v>
+        <v>15944600</v>
       </c>
       <c r="F17" s="3">
-        <v>32237500</v>
+        <v>30646000</v>
       </c>
       <c r="G17" s="3">
-        <v>15608200</v>
+        <v>15076200</v>
       </c>
       <c r="H17" s="3">
-        <v>33440700</v>
+        <v>29735000</v>
       </c>
       <c r="I17" s="3">
+        <v>14240300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>30444100</v>
+      </c>
+      <c r="K17" s="3">
         <v>16909900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15986100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14730100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5648400</v>
+        <v>1369900</v>
       </c>
       <c r="E18" s="3">
-        <v>2959200</v>
+        <v>1565200</v>
       </c>
       <c r="F18" s="3">
-        <v>4566100</v>
+        <v>4677600</v>
       </c>
       <c r="G18" s="3">
-        <v>2298300</v>
+        <v>2539100</v>
       </c>
       <c r="H18" s="3">
-        <v>5437100</v>
+        <v>3640900</v>
       </c>
       <c r="I18" s="3">
+        <v>2046500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4871700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2877000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1440300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1718500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1110,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-153800</v>
+        <v>-83000</v>
       </c>
       <c r="E20" s="3">
-        <v>-79800</v>
+        <v>4500</v>
       </c>
       <c r="F20" s="3">
-        <v>-147900</v>
+        <v>-151500</v>
       </c>
       <c r="G20" s="3">
-        <v>-66900</v>
+        <v>-83000</v>
       </c>
       <c r="H20" s="3">
-        <v>-42300</v>
+        <v>-177300</v>
       </c>
       <c r="I20" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-84500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7687300</v>
+        <v>3398500</v>
       </c>
       <c r="E21" s="3">
-        <v>3967500</v>
+        <v>2708500</v>
       </c>
       <c r="F21" s="3">
-        <v>6895000</v>
+        <v>6622000</v>
       </c>
       <c r="G21" s="3">
-        <v>3462700</v>
+        <v>3496100</v>
       </c>
       <c r="H21" s="3">
-        <v>7863400</v>
+        <v>5831000</v>
       </c>
       <c r="I21" s="3">
+        <v>3141600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7169500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4111900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2826500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>301700</v>
+        <v>317500</v>
       </c>
       <c r="E22" s="3">
-        <v>138500</v>
+        <v>159300</v>
       </c>
       <c r="F22" s="3">
-        <v>316900</v>
+        <v>267000</v>
       </c>
       <c r="G22" s="3">
-        <v>150200</v>
+        <v>120100</v>
       </c>
       <c r="H22" s="3">
-        <v>340400</v>
+        <v>264800</v>
       </c>
       <c r="I22" s="3">
+        <v>124500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>287200</v>
+      </c>
+      <c r="K22" s="3">
         <v>179600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>187800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5192900</v>
+        <v>969400</v>
       </c>
       <c r="E23" s="3">
-        <v>2740800</v>
+        <v>1410300</v>
       </c>
       <c r="F23" s="3">
-        <v>4101300</v>
+        <v>4259100</v>
       </c>
       <c r="G23" s="3">
-        <v>2081200</v>
+        <v>2336000</v>
       </c>
       <c r="H23" s="3">
-        <v>5054400</v>
+        <v>3198800</v>
       </c>
       <c r="I23" s="3">
+        <v>1840100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4522700</v>
+      </c>
+      <c r="K23" s="3">
         <v>2698600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1167900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1341700</v>
+        <v>-5600</v>
       </c>
       <c r="E24" s="3">
-        <v>677300</v>
+        <v>252400</v>
       </c>
       <c r="F24" s="3">
-        <v>561100</v>
+        <v>958200</v>
       </c>
       <c r="G24" s="3">
-        <v>427300</v>
+        <v>562100</v>
       </c>
       <c r="H24" s="3">
-        <v>1138600</v>
+        <v>356800</v>
       </c>
       <c r="I24" s="3">
+        <v>426400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1090600</v>
+      </c>
+      <c r="K24" s="3">
         <v>618600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>309900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>239500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1316,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3851300</v>
+        <v>975000</v>
       </c>
       <c r="E26" s="3">
-        <v>2063600</v>
+        <v>1157900</v>
       </c>
       <c r="F26" s="3">
-        <v>3540200</v>
+        <v>3300900</v>
       </c>
       <c r="G26" s="3">
-        <v>1653900</v>
+        <v>1773900</v>
       </c>
       <c r="H26" s="3">
-        <v>3915800</v>
+        <v>2842000</v>
       </c>
       <c r="I26" s="3">
+        <v>1413700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3432200</v>
+      </c>
+      <c r="K26" s="3">
         <v>2080000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>858100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1146800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3708100</v>
+        <v>806700</v>
       </c>
       <c r="E27" s="3">
-        <v>1970800</v>
+        <v>1082700</v>
       </c>
       <c r="F27" s="3">
-        <v>3372400</v>
+        <v>3164000</v>
       </c>
       <c r="G27" s="3">
-        <v>1568200</v>
+        <v>1685200</v>
       </c>
       <c r="H27" s="3">
-        <v>3762100</v>
+        <v>2681600</v>
       </c>
       <c r="I27" s="3">
+        <v>1331800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3285200</v>
+      </c>
+      <c r="K27" s="3">
         <v>2006000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>808800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1042300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,37 +1421,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>930100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>263700</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>380400</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>198600</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>541900</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>167200</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>310800</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1491,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1526,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>153800</v>
+        <v>83000</v>
       </c>
       <c r="E32" s="3">
-        <v>79800</v>
+        <v>-4500</v>
       </c>
       <c r="F32" s="3">
-        <v>147900</v>
+        <v>151500</v>
       </c>
       <c r="G32" s="3">
-        <v>66900</v>
+        <v>83000</v>
       </c>
       <c r="H32" s="3">
-        <v>42300</v>
+        <v>177300</v>
       </c>
       <c r="I32" s="3">
+        <v>81900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>84500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3708100</v>
+        <v>1736800</v>
       </c>
       <c r="E33" s="3">
-        <v>1970800</v>
+        <v>1346400</v>
       </c>
       <c r="F33" s="3">
-        <v>3372400</v>
+        <v>3544400</v>
       </c>
       <c r="G33" s="3">
-        <v>1568200</v>
+        <v>1883800</v>
       </c>
       <c r="H33" s="3">
-        <v>3762100</v>
+        <v>3223500</v>
       </c>
       <c r="I33" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3596000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2006000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>808800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1042300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1631,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3708100</v>
+        <v>1736800</v>
       </c>
       <c r="E35" s="3">
-        <v>1970800</v>
+        <v>1346400</v>
       </c>
       <c r="F35" s="3">
-        <v>3372400</v>
+        <v>3544400</v>
       </c>
       <c r="G35" s="3">
-        <v>1568200</v>
+        <v>1883800</v>
       </c>
       <c r="H35" s="3">
-        <v>3762100</v>
+        <v>3223500</v>
       </c>
       <c r="I35" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3596000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2006000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>808800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1042300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1725,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,135 +1740,161 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8994900</v>
+        <v>2580600</v>
       </c>
       <c r="E41" s="3">
-        <v>8537100</v>
+        <v>2728700</v>
       </c>
       <c r="F41" s="3">
-        <v>7623900</v>
+        <v>8597800</v>
       </c>
       <c r="G41" s="3">
-        <v>4600200</v>
+        <v>8160200</v>
       </c>
       <c r="H41" s="3">
-        <v>2170400</v>
+        <v>7287300</v>
       </c>
       <c r="I41" s="3">
+        <v>4397100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2074600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2163300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1614000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4061400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44600</v>
+        <v>386000</v>
       </c>
       <c r="E42" s="3">
-        <v>42300</v>
+        <v>35900</v>
       </c>
       <c r="F42" s="3">
-        <v>61000</v>
+        <v>42600</v>
       </c>
       <c r="G42" s="3">
-        <v>31700</v>
+        <v>40400</v>
       </c>
       <c r="H42" s="3">
-        <v>34000</v>
+        <v>58300</v>
       </c>
       <c r="I42" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K42" s="3">
         <v>39900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>629200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18363100</v>
+        <v>15487900</v>
       </c>
       <c r="E43" s="3">
-        <v>18850200</v>
+        <v>16782700</v>
       </c>
       <c r="F43" s="3">
-        <v>16779600</v>
+        <v>17552400</v>
       </c>
       <c r="G43" s="3">
-        <v>16987400</v>
+        <v>18018000</v>
       </c>
       <c r="H43" s="3">
-        <v>18076700</v>
+        <v>16038800</v>
       </c>
       <c r="I43" s="3">
+        <v>16237400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>17278600</v>
+      </c>
+      <c r="K43" s="3">
         <v>19461800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>16468600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>15635100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12556200</v>
+        <v>13650100</v>
       </c>
       <c r="E44" s="3">
-        <v>12157200</v>
+        <v>13576100</v>
       </c>
       <c r="F44" s="3">
-        <v>12093800</v>
+        <v>12001900</v>
       </c>
       <c r="G44" s="3">
-        <v>11755700</v>
+        <v>11620500</v>
       </c>
       <c r="H44" s="3">
-        <v>11682900</v>
+        <v>11559900</v>
       </c>
       <c r="I44" s="3">
+        <v>11236700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>11167200</v>
+      </c>
+      <c r="K44" s="3">
         <v>11994000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>11744000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>11535000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>564600</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
+        <v>16388900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15480100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>539700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
@@ -1675,127 +1908,157 @@
       <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40523400</v>
+        <v>48493500</v>
       </c>
       <c r="E46" s="3">
-        <v>39586700</v>
+        <v>48603500</v>
       </c>
       <c r="F46" s="3">
-        <v>36558300</v>
+        <v>38734500</v>
       </c>
       <c r="G46" s="3">
-        <v>33374900</v>
+        <v>37839100</v>
       </c>
       <c r="H46" s="3">
-        <v>31964000</v>
+        <v>34944400</v>
       </c>
       <c r="I46" s="3">
+        <v>31901500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>30552900</v>
+      </c>
+      <c r="K46" s="3">
         <v>33659000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>30455700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>31279700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6236500</v>
+        <v>4105400</v>
       </c>
       <c r="E47" s="3">
-        <v>6180100</v>
+        <v>4001000</v>
       </c>
       <c r="F47" s="3">
-        <v>6245800</v>
+        <v>7715900</v>
       </c>
       <c r="G47" s="3">
-        <v>6255200</v>
+        <v>7413000</v>
       </c>
       <c r="H47" s="3">
-        <v>6136700</v>
+        <v>7464600</v>
       </c>
       <c r="I47" s="3">
+        <v>7534200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7382700</v>
+      </c>
+      <c r="K47" s="3">
         <v>6317400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6164900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5831500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29396900</v>
+        <v>23315000</v>
       </c>
       <c r="E48" s="3">
-        <v>29184400</v>
+        <v>22378100</v>
       </c>
       <c r="F48" s="3">
-        <v>29648100</v>
+        <v>28099100</v>
       </c>
       <c r="G48" s="3">
-        <v>28785300</v>
+        <v>27896000</v>
       </c>
       <c r="H48" s="3">
-        <v>29362900</v>
+        <v>28339200</v>
       </c>
       <c r="I48" s="3">
+        <v>27514600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>28066600</v>
+      </c>
+      <c r="K48" s="3">
         <v>30641100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>31003800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>29738500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15783000</v>
+        <v>18573400</v>
       </c>
       <c r="E49" s="3">
-        <v>15630500</v>
+        <v>18922400</v>
       </c>
       <c r="F49" s="3">
-        <v>15956800</v>
+        <v>15086300</v>
       </c>
       <c r="G49" s="3">
-        <v>16500200</v>
+        <v>14940400</v>
       </c>
       <c r="H49" s="3">
-        <v>16881700</v>
+        <v>15252300</v>
       </c>
       <c r="I49" s="3">
+        <v>15771800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>16136500</v>
+      </c>
+      <c r="K49" s="3">
         <v>17714000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17797300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>14190200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2086,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2121,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4144700</v>
+        <v>2627700</v>
       </c>
       <c r="E52" s="3">
-        <v>3854800</v>
+        <v>2113800</v>
       </c>
       <c r="F52" s="3">
-        <v>4049600</v>
+        <v>2207000</v>
       </c>
       <c r="G52" s="3">
-        <v>4320800</v>
+        <v>2178900</v>
       </c>
       <c r="H52" s="3">
-        <v>4454600</v>
+        <v>2376400</v>
       </c>
       <c r="I52" s="3">
+        <v>2575000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2741000</v>
+      </c>
+      <c r="K52" s="3">
         <v>4486300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4370100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4769200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2191,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>96084600</v>
+        <v>97115000</v>
       </c>
       <c r="E54" s="3">
-        <v>94436500</v>
+        <v>96018800</v>
       </c>
       <c r="F54" s="3">
-        <v>92458700</v>
+        <v>91842700</v>
       </c>
       <c r="G54" s="3">
-        <v>89236600</v>
+        <v>90267500</v>
       </c>
       <c r="H54" s="3">
-        <v>88799900</v>
+        <v>88376900</v>
       </c>
       <c r="I54" s="3">
+        <v>85297000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>84879700</v>
+      </c>
+      <c r="K54" s="3">
         <v>92817900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>89791800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>85809000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2245,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2260,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5906600</v>
+        <v>5746800</v>
       </c>
       <c r="E57" s="3">
-        <v>5547400</v>
+        <v>5639100</v>
       </c>
       <c r="F57" s="3">
-        <v>5835000</v>
+        <v>5645900</v>
       </c>
       <c r="G57" s="3">
-        <v>5108400</v>
+        <v>5302500</v>
       </c>
       <c r="H57" s="3">
-        <v>5169500</v>
+        <v>5577400</v>
       </c>
       <c r="I57" s="3">
+        <v>4882900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4941200</v>
+      </c>
+      <c r="K57" s="3">
         <v>5730500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5411300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4548500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4284400</v>
+        <v>6181000</v>
       </c>
       <c r="E58" s="3">
-        <v>3546100</v>
+        <v>4406100</v>
       </c>
       <c r="F58" s="3">
-        <v>2931000</v>
+        <v>4095300</v>
       </c>
       <c r="G58" s="3">
-        <v>2310100</v>
+        <v>3389500</v>
       </c>
       <c r="H58" s="3">
-        <v>3744500</v>
+        <v>2801600</v>
       </c>
       <c r="I58" s="3">
+        <v>2208100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3579100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2935700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4447600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6243500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9379900</v>
+        <v>14247000</v>
       </c>
       <c r="E59" s="3">
-        <v>10040800</v>
+        <v>14747400</v>
       </c>
       <c r="F59" s="3">
-        <v>8700300</v>
+        <v>8965800</v>
       </c>
       <c r="G59" s="3">
-        <v>9340000</v>
+        <v>9597500</v>
       </c>
       <c r="H59" s="3">
-        <v>8089900</v>
+        <v>8316200</v>
       </c>
       <c r="I59" s="3">
+        <v>8927700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7732800</v>
+      </c>
+      <c r="K59" s="3">
         <v>8626300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8120400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7973700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19570900</v>
+        <v>26174900</v>
       </c>
       <c r="E60" s="3">
-        <v>19134300</v>
+        <v>24792600</v>
       </c>
       <c r="F60" s="3">
-        <v>17466300</v>
+        <v>18706900</v>
       </c>
       <c r="G60" s="3">
-        <v>16758500</v>
+        <v>18289600</v>
       </c>
       <c r="H60" s="3">
-        <v>17003800</v>
+        <v>16695200</v>
       </c>
       <c r="I60" s="3">
+        <v>16018700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>16253100</v>
+      </c>
+      <c r="K60" s="3">
         <v>17292600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17979200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>18765700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19531000</v>
+        <v>17202400</v>
       </c>
       <c r="E61" s="3">
-        <v>17337200</v>
+        <v>18583500</v>
       </c>
       <c r="F61" s="3">
-        <v>18235100</v>
+        <v>18668800</v>
       </c>
       <c r="G61" s="3">
-        <v>16722100</v>
+        <v>16571800</v>
       </c>
       <c r="H61" s="3">
-        <v>16735000</v>
+        <v>17430100</v>
       </c>
       <c r="I61" s="3">
+        <v>15983900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>15996200</v>
+      </c>
+      <c r="K61" s="3">
         <v>16796000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>14824000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>12299200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15545900</v>
+        <v>13223800</v>
       </c>
       <c r="E62" s="3">
-        <v>15253700</v>
+        <v>11531800</v>
       </c>
       <c r="F62" s="3">
-        <v>15960300</v>
+        <v>14859600</v>
       </c>
       <c r="G62" s="3">
-        <v>16620000</v>
+        <v>14580300</v>
       </c>
       <c r="H62" s="3">
-        <v>16980300</v>
+        <v>15255700</v>
       </c>
       <c r="I62" s="3">
+        <v>15886300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>16230700</v>
+      </c>
+      <c r="K62" s="3">
         <v>18157700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>18759800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>19838600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2501,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2536,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2571,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55698500</v>
+        <v>57784700</v>
       </c>
       <c r="E66" s="3">
-        <v>52887200</v>
+        <v>55986200</v>
       </c>
       <c r="F66" s="3">
-        <v>52740500</v>
+        <v>53239500</v>
       </c>
       <c r="G66" s="3">
-        <v>51119400</v>
+        <v>50552400</v>
       </c>
       <c r="H66" s="3">
-        <v>51667600</v>
+        <v>50412100</v>
       </c>
       <c r="I66" s="3">
+        <v>48862700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>49386600</v>
+      </c>
+      <c r="K66" s="3">
         <v>53231100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>52456400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>51720400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2625,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2656,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2691,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2726,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2761,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44925200</v>
+        <v>44674300</v>
       </c>
       <c r="E72" s="3">
-        <v>46519300</v>
+        <v>44278200</v>
       </c>
       <c r="F72" s="3">
-        <v>44537900</v>
+        <v>42941900</v>
       </c>
       <c r="G72" s="3">
-        <v>42779500</v>
+        <v>44465600</v>
       </c>
       <c r="H72" s="3">
-        <v>41211300</v>
+        <v>42571700</v>
       </c>
       <c r="I72" s="3">
+        <v>40890900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>39391900</v>
+      </c>
+      <c r="K72" s="3">
         <v>42676200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>40666600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>39867300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2831,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2866,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2901,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40386100</v>
+        <v>39330200</v>
       </c>
       <c r="E76" s="3">
-        <v>41549400</v>
+        <v>40032600</v>
       </c>
       <c r="F76" s="3">
-        <v>39718200</v>
+        <v>38603200</v>
       </c>
       <c r="G76" s="3">
-        <v>38117100</v>
+        <v>39715100</v>
       </c>
       <c r="H76" s="3">
-        <v>37132300</v>
+        <v>37964800</v>
       </c>
       <c r="I76" s="3">
+        <v>36434400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>35493000</v>
+      </c>
+      <c r="K76" s="3">
         <v>39586700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>37335400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>34088600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2971,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3708100</v>
+        <v>1736800</v>
       </c>
       <c r="E81" s="3">
-        <v>1970800</v>
+        <v>1346400</v>
       </c>
       <c r="F81" s="3">
-        <v>3372400</v>
+        <v>3544400</v>
       </c>
       <c r="G81" s="3">
-        <v>1568200</v>
+        <v>1883800</v>
       </c>
       <c r="H81" s="3">
-        <v>3762100</v>
+        <v>3223500</v>
       </c>
       <c r="I81" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3596000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2006000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>808800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1042300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3065,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2192700</v>
+        <v>2111600</v>
       </c>
       <c r="E83" s="3">
-        <v>1088100</v>
+        <v>1138800</v>
       </c>
       <c r="F83" s="3">
-        <v>2476700</v>
+        <v>2095900</v>
       </c>
       <c r="G83" s="3">
-        <v>1231300</v>
+        <v>1040100</v>
       </c>
       <c r="H83" s="3">
-        <v>2468500</v>
+        <v>2367400</v>
       </c>
       <c r="I83" s="3">
+        <v>1177000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2359500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1233700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1470800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1186700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3131,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3166,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3201,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3236,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3271,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4055500</v>
+        <v>5031000</v>
       </c>
       <c r="E89" s="3">
-        <v>1445000</v>
+        <v>3287400</v>
       </c>
       <c r="F89" s="3">
-        <v>5859700</v>
+        <v>3876500</v>
       </c>
       <c r="G89" s="3">
-        <v>4454600</v>
+        <v>1381200</v>
       </c>
       <c r="H89" s="3">
-        <v>4462800</v>
+        <v>5601000</v>
       </c>
       <c r="I89" s="3">
+        <v>4258000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4265800</v>
+      </c>
+      <c r="K89" s="3">
         <v>977800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2204400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2935700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3325,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1700900</v>
+        <v>-2743300</v>
       </c>
       <c r="E91" s="3">
-        <v>-736000</v>
+        <v>-1098400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2763100</v>
+        <v>-1625800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1131600</v>
+        <v>-703500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1927400</v>
+        <v>-2641200</v>
       </c>
       <c r="I91" s="3">
+        <v>-1081600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1842300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-900300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1443800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1098700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3391,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3426,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2036600</v>
+        <v>-11297300</v>
       </c>
       <c r="E94" s="3">
-        <v>-744200</v>
+        <v>-9313600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1869900</v>
+        <v>-1946700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1230200</v>
+        <v>-711300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2776100</v>
+        <v>-1787300</v>
       </c>
       <c r="I94" s="3">
+        <v>-1175800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2653500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1426200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4359500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-925000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3480,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3573100</v>
+        <v>25800</v>
       </c>
       <c r="E96" s="3">
-        <v>-22300</v>
+        <v>-14600</v>
       </c>
       <c r="F96" s="3">
-        <v>-42300</v>
+        <v>-3415300</v>
       </c>
       <c r="G96" s="3">
-        <v>-4700</v>
+        <v>-21300</v>
       </c>
       <c r="H96" s="3">
-        <v>-3330100</v>
+        <v>-40400</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="J96" s="3">
+        <v>-3183100</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-16400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3546,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3581,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3616,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-608000</v>
+        <v>522800</v>
       </c>
       <c r="E100" s="3">
-        <v>235900</v>
+        <v>438700</v>
       </c>
       <c r="F100" s="3">
-        <v>1502500</v>
+        <v>-581200</v>
       </c>
       <c r="G100" s="3">
-        <v>-774700</v>
+        <v>225500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1040000</v>
+        <v>1436100</v>
       </c>
       <c r="I100" s="3">
+        <v>-740500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-994100</v>
+      </c>
+      <c r="K100" s="3">
         <v>975400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-307500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-98600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3686,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1410900</v>
+        <v>-5809700</v>
       </c>
       <c r="E102" s="3">
-        <v>936700</v>
+        <v>-5587500</v>
       </c>
       <c r="F102" s="3">
-        <v>5363100</v>
+        <v>1348600</v>
       </c>
       <c r="G102" s="3">
-        <v>2449700</v>
+        <v>895300</v>
       </c>
       <c r="H102" s="3">
-        <v>646800</v>
+        <v>5126400</v>
       </c>
       <c r="I102" s="3">
+        <v>2341600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>618200</v>
+      </c>
+      <c r="K102" s="3">
         <v>527000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2385200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1912100</v>
       </c>
     </row>

--- a/Financials/Quarterly/BASFY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/BASFY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D134CE17-396E-47F4-A26A-2C5A7003D9A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BASFY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>BASFY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,179 +654,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32814800</v>
+        <v>16723600</v>
       </c>
       <c r="E8" s="3">
-        <v>17509800</v>
+        <v>16643500</v>
       </c>
       <c r="F8" s="3">
-        <v>35323600</v>
+        <v>17762300</v>
       </c>
       <c r="G8" s="3">
-        <v>17615200</v>
+        <v>49226600</v>
       </c>
       <c r="H8" s="3">
+        <v>17135400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>51898100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>17238600</v>
+      </c>
+      <c r="K8" s="3">
         <v>33375800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>16286800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>35315800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>19786900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>17426400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>16448600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24214800</v>
+        <v>12209800</v>
       </c>
       <c r="E9" s="3">
-        <v>12466400</v>
+        <v>11975900</v>
       </c>
       <c r="F9" s="3">
-        <v>24257400</v>
+        <v>12356900</v>
       </c>
       <c r="G9" s="3">
-        <v>12021000</v>
+        <v>36420700</v>
       </c>
       <c r="H9" s="3">
+        <v>12199900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>35713500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11764000</v>
+      </c>
+      <c r="K9" s="3">
         <v>22626100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>11083000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>24038600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>13477700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>12032700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>11355400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8600100</v>
+        <v>4513900</v>
       </c>
       <c r="E10" s="3">
-        <v>5043300</v>
+        <v>4667600</v>
       </c>
       <c r="F10" s="3">
-        <v>11066200</v>
+        <v>5405500</v>
       </c>
       <c r="G10" s="3">
-        <v>5594200</v>
+        <v>12806000</v>
       </c>
       <c r="H10" s="3">
+        <v>4935500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>16184500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5474600</v>
+      </c>
+      <c r="K10" s="3">
         <v>10749800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>5203800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>11277100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>6309200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>5393700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>5093200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,43 +879,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1291400</v>
+        <v>592900</v>
       </c>
       <c r="E12" s="3">
-        <v>571100</v>
+        <v>577500</v>
       </c>
       <c r="F12" s="3">
-        <v>973900</v>
+        <v>561100</v>
       </c>
       <c r="G12" s="3">
-        <v>475700</v>
+        <v>1978600</v>
       </c>
       <c r="H12" s="3">
+        <v>558900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1440600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>465600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1086100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>503800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>981700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>497700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>632700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,78 +961,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>268200</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>194100</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>46100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>191900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
-        <v>182900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>182900</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>47100</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>33700</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>205300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3">
-        <v>143600</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>143600</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1027,78 +1070,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31444900</v>
+        <v>15212800</v>
       </c>
       <c r="E17" s="3">
-        <v>15944600</v>
+        <v>16041800</v>
       </c>
       <c r="F17" s="3">
-        <v>30646000</v>
+        <v>15832100</v>
       </c>
       <c r="G17" s="3">
-        <v>15076200</v>
+        <v>16598500</v>
       </c>
       <c r="H17" s="3">
+        <v>15603700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>15236900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>14753800</v>
+      </c>
+      <c r="K17" s="3">
         <v>29735000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>14240300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>30444100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>16909900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>15986100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>14730100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1369900</v>
+        <v>1510800</v>
       </c>
       <c r="E18" s="3">
-        <v>1565200</v>
+        <v>601700</v>
       </c>
       <c r="F18" s="3">
-        <v>4677600</v>
+        <v>1930300</v>
       </c>
       <c r="G18" s="3">
-        <v>2539100</v>
+        <v>32628200</v>
       </c>
       <c r="H18" s="3">
+        <v>1531700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>36661100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2484800</v>
+      </c>
+      <c r="K18" s="3">
         <v>3640900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>2046500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>4871700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>2877000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>1440300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>1718500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,183 +1176,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-83000</v>
+        <v>-8800</v>
       </c>
       <c r="E20" s="3">
-        <v>4500</v>
+        <v>-41700</v>
       </c>
       <c r="F20" s="3">
-        <v>-151500</v>
+        <v>-30700</v>
       </c>
       <c r="G20" s="3">
-        <v>-83000</v>
+        <v>-31312800</v>
       </c>
       <c r="H20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-31490600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-177300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-81900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-61700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-84500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3398500</v>
+        <v>2559400</v>
       </c>
       <c r="E21" s="3">
-        <v>2708500</v>
+        <v>1743600</v>
       </c>
       <c r="F21" s="3">
-        <v>6622000</v>
+        <v>3031600</v>
       </c>
       <c r="G21" s="3">
-        <v>3496100</v>
+        <v>6384900</v>
       </c>
       <c r="H21" s="3">
+        <v>599500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8254800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3421400</v>
+      </c>
+      <c r="K21" s="3">
         <v>5831000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>3141600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>7169500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>4111900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>2826500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>317500</v>
+        <v>177900</v>
       </c>
       <c r="E22" s="3">
-        <v>159300</v>
+        <v>182300</v>
       </c>
       <c r="F22" s="3">
-        <v>267000</v>
+        <v>184500</v>
       </c>
       <c r="G22" s="3">
-        <v>120100</v>
+        <v>103200</v>
       </c>
       <c r="H22" s="3">
+        <v>155900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>58200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>117500</v>
+      </c>
+      <c r="K22" s="3">
         <v>264800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>124500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>287200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>179600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>187800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>969400</v>
+        <v>1324200</v>
       </c>
       <c r="E23" s="3">
-        <v>1410300</v>
+        <v>377700</v>
       </c>
       <c r="F23" s="3">
-        <v>4259100</v>
+        <v>1715100</v>
       </c>
       <c r="G23" s="3">
-        <v>2336000</v>
+        <v>1212200</v>
       </c>
       <c r="H23" s="3">
+        <v>1380200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5112300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2286000</v>
+      </c>
+      <c r="K23" s="3">
         <v>3198800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1840100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>4522700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>2698600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>1167900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5600</v>
+        <v>297600</v>
       </c>
       <c r="E24" s="3">
-        <v>252400</v>
+        <v>68100</v>
       </c>
       <c r="F24" s="3">
-        <v>958200</v>
+        <v>434800</v>
       </c>
       <c r="G24" s="3">
-        <v>562100</v>
+        <v>64800</v>
       </c>
       <c r="H24" s="3">
+        <v>247100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>387600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>550100</v>
+      </c>
+      <c r="K24" s="3">
         <v>356800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>426400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>1090600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>618600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>309900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>239500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1322,78 +1434,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>975000</v>
+        <v>1026600</v>
       </c>
       <c r="E26" s="3">
-        <v>1157900</v>
+        <v>309600</v>
       </c>
       <c r="F26" s="3">
-        <v>3300900</v>
+        <v>1280300</v>
       </c>
       <c r="G26" s="3">
-        <v>1773900</v>
+        <v>982700</v>
       </c>
       <c r="H26" s="3">
+        <v>1133100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4590700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1735900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2842000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1413700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>3432200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>2080000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>858100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1146800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>806700</v>
+        <v>1000300</v>
       </c>
       <c r="E27" s="3">
-        <v>1082700</v>
+        <v>337100</v>
       </c>
       <c r="F27" s="3">
-        <v>3164000</v>
+        <v>1242900</v>
       </c>
       <c r="G27" s="3">
-        <v>1685200</v>
+        <v>891600</v>
       </c>
       <c r="H27" s="3">
+        <v>1059600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4543500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1649200</v>
+      </c>
+      <c r="K27" s="3">
         <v>2681600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1331800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>3285200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>2006000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>808800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1042300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1427,43 +1566,61 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>930100</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>263700</v>
+        <v>6756000</v>
       </c>
       <c r="F29" s="3">
-        <v>380400</v>
+        <v>300900</v>
       </c>
       <c r="G29" s="3">
-        <v>198600</v>
+        <v>1979700</v>
       </c>
       <c r="H29" s="3">
+        <v>258000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>3646500</v>
+      </c>
+      <c r="J29" s="3">
+        <v>194300</v>
+      </c>
+      <c r="K29" s="3">
         <v>541900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>167200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="M29" s="3">
         <v>310800</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1497,8 +1654,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1532,78 +1698,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>83000</v>
+        <v>8800</v>
       </c>
       <c r="E32" s="3">
-        <v>-4500</v>
+        <v>41700</v>
       </c>
       <c r="F32" s="3">
-        <v>151500</v>
+        <v>30700</v>
       </c>
       <c r="G32" s="3">
-        <v>83000</v>
+        <v>31312800</v>
       </c>
       <c r="H32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>31490600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>81300</v>
+      </c>
+      <c r="K32" s="3">
         <v>177300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>81900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>61700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>84500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1736800</v>
+        <v>1000300</v>
       </c>
       <c r="E33" s="3">
-        <v>1346400</v>
+        <v>7093100</v>
       </c>
       <c r="F33" s="3">
-        <v>3544400</v>
+        <v>1543800</v>
       </c>
       <c r="G33" s="3">
-        <v>1883800</v>
+        <v>2871300</v>
       </c>
       <c r="H33" s="3">
+        <v>1317600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>8190000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1843500</v>
+      </c>
+      <c r="K33" s="3">
         <v>3223500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1499000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>3596000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>2006000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>808800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1042300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1637,83 +1830,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1736800</v>
+        <v>1000300</v>
       </c>
       <c r="E35" s="3">
-        <v>1346400</v>
+        <v>7093100</v>
       </c>
       <c r="F35" s="3">
-        <v>3544400</v>
+        <v>1543800</v>
       </c>
       <c r="G35" s="3">
-        <v>1883800</v>
+        <v>2871300</v>
       </c>
       <c r="H35" s="3">
+        <v>1317600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>8190000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1843500</v>
+      </c>
+      <c r="K35" s="3">
         <v>3223500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1499000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>3596000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>2006000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>808800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1042300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1727,8 +1947,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1742,168 +1965,207 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2580600</v>
+        <v>2404600</v>
       </c>
       <c r="E41" s="3">
-        <v>2728700</v>
+        <v>2325600</v>
       </c>
       <c r="F41" s="3">
-        <v>8597800</v>
+        <v>2528700</v>
       </c>
       <c r="G41" s="3">
-        <v>8160200</v>
+        <v>2525400</v>
       </c>
       <c r="H41" s="3">
+        <v>2670300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>8414000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7985800</v>
+      </c>
+      <c r="K41" s="3">
         <v>7287300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>4397100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>2074600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>2163300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1614000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>4061400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>386000</v>
+        <v>41700</v>
       </c>
       <c r="E42" s="3">
-        <v>35900</v>
+        <v>51600</v>
       </c>
       <c r="F42" s="3">
-        <v>42600</v>
+        <v>45000</v>
       </c>
       <c r="G42" s="3">
-        <v>40400</v>
+        <v>377700</v>
       </c>
       <c r="H42" s="3">
+        <v>35100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>41700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K42" s="3">
         <v>58300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>30300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>32500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>39900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>629200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15487900</v>
+        <v>15642100</v>
       </c>
       <c r="E43" s="3">
-        <v>16782700</v>
+        <v>16401900</v>
       </c>
       <c r="F43" s="3">
-        <v>17552400</v>
+        <v>18384900</v>
       </c>
       <c r="G43" s="3">
-        <v>18018000</v>
+        <v>15156800</v>
       </c>
       <c r="H43" s="3">
+        <v>16423900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>17177100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>17632800</v>
+      </c>
+      <c r="K43" s="3">
         <v>16038800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>16237400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>17278600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>19461800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>16468600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>15635100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13650100</v>
+        <v>13340700</v>
       </c>
       <c r="E44" s="3">
-        <v>13576100</v>
+        <v>13566900</v>
       </c>
       <c r="F44" s="3">
-        <v>12001900</v>
+        <v>13675600</v>
       </c>
       <c r="G44" s="3">
-        <v>11620500</v>
+        <v>26716500</v>
       </c>
       <c r="H44" s="3">
+        <v>13285800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>11745300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>11372000</v>
+      </c>
+      <c r="K44" s="3">
         <v>11559900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>11236700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>11167200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>11994000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>11744000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>11535000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16388900</v>
+        <v>1539400</v>
       </c>
       <c r="E45" s="3">
-        <v>15480100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>539700</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
+        <v>16440400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>16038500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>15149100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>528100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
@@ -1914,151 +2176,196 @@
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>48493500</v>
+        <v>32968500</v>
       </c>
       <c r="E46" s="3">
-        <v>48603500</v>
+        <v>32346000</v>
       </c>
       <c r="F46" s="3">
-        <v>38734500</v>
+        <v>51074600</v>
       </c>
       <c r="G46" s="3">
-        <v>37839100</v>
+        <v>47456700</v>
       </c>
       <c r="H46" s="3">
+        <v>47564300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>37906300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>37030100</v>
+      </c>
+      <c r="K46" s="3">
         <v>34944400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>31901500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>30552900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>33659000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>30455700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>31279700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4105400</v>
+        <v>19612500</v>
       </c>
       <c r="E47" s="3">
-        <v>4001000</v>
+        <v>19633300</v>
       </c>
       <c r="F47" s="3">
-        <v>7715900</v>
+        <v>4767500</v>
       </c>
       <c r="G47" s="3">
-        <v>7413000</v>
+        <v>4017600</v>
       </c>
       <c r="H47" s="3">
+        <v>3915500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7550900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7254500</v>
+      </c>
+      <c r="K47" s="3">
         <v>7464600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>7534200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>7382700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>6317400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>6164900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>5831500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23315000</v>
+        <v>24450300</v>
       </c>
       <c r="E48" s="3">
-        <v>22378100</v>
+        <v>24285600</v>
       </c>
       <c r="F48" s="3">
-        <v>28099100</v>
+        <v>24224100</v>
       </c>
       <c r="G48" s="3">
-        <v>27896000</v>
+        <v>45632900</v>
       </c>
       <c r="H48" s="3">
+        <v>21899600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>27498300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>27299600</v>
+      </c>
+      <c r="K48" s="3">
         <v>28339200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>27514600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>28066600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>30641100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>31003800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>29738500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18573400</v>
+        <v>17796400</v>
       </c>
       <c r="E49" s="3">
-        <v>18922400</v>
+        <v>17928100</v>
       </c>
       <c r="F49" s="3">
-        <v>15086300</v>
+        <v>18122500</v>
       </c>
       <c r="G49" s="3">
-        <v>14940400</v>
+        <v>36352600</v>
       </c>
       <c r="H49" s="3">
+        <v>18517800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>14763700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>14621000</v>
+      </c>
+      <c r="K49" s="3">
         <v>15252300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>15771800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>16136500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>17714000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>17797300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>14190200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,8 +2399,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,43 +2443,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2627700</v>
+        <v>3543200</v>
       </c>
       <c r="E52" s="3">
-        <v>2113800</v>
+        <v>3264400</v>
       </c>
       <c r="F52" s="3">
-        <v>2207000</v>
+        <v>2871300</v>
       </c>
       <c r="G52" s="3">
-        <v>2178900</v>
+        <v>2571500</v>
       </c>
       <c r="H52" s="3">
+        <v>2068600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2159800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2132300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2376400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>2575000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>2741000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>4486300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>4370100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>4769200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2197,43 +2531,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>97115000</v>
+        <v>98370900</v>
       </c>
       <c r="E54" s="3">
-        <v>96018800</v>
+        <v>97457400</v>
       </c>
       <c r="F54" s="3">
-        <v>91842700</v>
+        <v>101059900</v>
       </c>
       <c r="G54" s="3">
-        <v>90267500</v>
+        <v>95038500</v>
       </c>
       <c r="H54" s="3">
+        <v>93965700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>89879000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>88337400</v>
+      </c>
+      <c r="K54" s="3">
         <v>88376900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>85297000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>84879700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>92817900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>89791800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>85809000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2247,8 +2599,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2262,218 +2617,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5746800</v>
+        <v>4928900</v>
       </c>
       <c r="E57" s="3">
-        <v>5639100</v>
+        <v>5308800</v>
       </c>
       <c r="F57" s="3">
-        <v>5645900</v>
+        <v>5480100</v>
       </c>
       <c r="G57" s="3">
-        <v>5302500</v>
+        <v>5624000</v>
       </c>
       <c r="H57" s="3">
+        <v>5518500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5525100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5189100</v>
+      </c>
+      <c r="K57" s="3">
         <v>5577400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>4882900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>4941200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>5730500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>5411300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>4548500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6181000</v>
+        <v>4300900</v>
       </c>
       <c r="E58" s="3">
-        <v>4406100</v>
+        <v>5574500</v>
       </c>
       <c r="F58" s="3">
-        <v>4095300</v>
+        <v>6234400</v>
       </c>
       <c r="G58" s="3">
-        <v>3389500</v>
+        <v>6048900</v>
       </c>
       <c r="H58" s="3">
+        <v>4311800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4007700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3317100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2801600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>2208100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>3579100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>2935700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>4447600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>6243500</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14247000</v>
+        <v>9253900</v>
       </c>
       <c r="E59" s="3">
-        <v>14747400</v>
+        <v>8315200</v>
       </c>
       <c r="F59" s="3">
-        <v>8965800</v>
+        <v>16030800</v>
       </c>
       <c r="G59" s="3">
-        <v>9597500</v>
+        <v>17234200</v>
       </c>
       <c r="H59" s="3">
+        <v>14432100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>8774100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9392300</v>
+      </c>
+      <c r="K59" s="3">
         <v>8316200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>8927700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>7732800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>8626300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>8120400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>7973700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26174900</v>
+        <v>18483700</v>
       </c>
       <c r="E60" s="3">
-        <v>24792600</v>
+        <v>19198500</v>
       </c>
       <c r="F60" s="3">
-        <v>18706900</v>
+        <v>27745400</v>
       </c>
       <c r="G60" s="3">
-        <v>18289600</v>
+        <v>25615200</v>
       </c>
       <c r="H60" s="3">
+        <v>24262500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>18307000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>17898500</v>
+      </c>
+      <c r="K60" s="3">
         <v>16695200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>16018700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>16253100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>17292600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>17979200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>18765700</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17202400</v>
+        <v>17694300</v>
       </c>
       <c r="E61" s="3">
-        <v>18583500</v>
+        <v>17524100</v>
       </c>
       <c r="F61" s="3">
-        <v>18668800</v>
+        <v>17674500</v>
       </c>
       <c r="G61" s="3">
-        <v>16571800</v>
+        <v>16834500</v>
       </c>
       <c r="H61" s="3">
+        <v>18186200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>18269600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>16217500</v>
+      </c>
+      <c r="K61" s="3">
         <v>17430100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>15983900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>15996200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>16796000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>14824000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>12299200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13223800</v>
+        <v>16762100</v>
       </c>
       <c r="E62" s="3">
-        <v>11531800</v>
+        <v>15884800</v>
       </c>
       <c r="F62" s="3">
-        <v>14859600</v>
+        <v>14119200</v>
       </c>
       <c r="G62" s="3">
-        <v>14580300</v>
+        <v>34554100</v>
       </c>
       <c r="H62" s="3">
+        <v>11285200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>40682000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14268500</v>
+      </c>
+      <c r="K62" s="3">
         <v>15255700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>15886300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>16230700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>18157700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>18759800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>19838600</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2507,8 +2919,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2542,8 +2963,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2577,43 +3007,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57784700</v>
+        <v>53914000</v>
       </c>
       <c r="E66" s="3">
-        <v>55986200</v>
+        <v>53529700</v>
       </c>
       <c r="F66" s="3">
-        <v>53239500</v>
+        <v>60789700</v>
       </c>
       <c r="G66" s="3">
-        <v>50552400</v>
+        <v>64711700</v>
       </c>
       <c r="H66" s="3">
+        <v>54789100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>58772600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>49471500</v>
+      </c>
+      <c r="K66" s="3">
         <v>50412100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>48862700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>49386600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>53231100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>52456400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>51720400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2627,8 +3075,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2662,8 +3113,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2697,8 +3157,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,8 +3201,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2767,43 +3245,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44674300</v>
+        <v>49986500</v>
       </c>
       <c r="E72" s="3">
-        <v>44278200</v>
+        <v>48987300</v>
       </c>
       <c r="F72" s="3">
-        <v>42941900</v>
+        <v>45274900</v>
       </c>
       <c r="G72" s="3">
-        <v>44465600</v>
+        <v>87438100</v>
       </c>
       <c r="H72" s="3">
+        <v>43331500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>84047500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>43514800</v>
+      </c>
+      <c r="K72" s="3">
         <v>42571700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>40890900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>39391900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>42676200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>40666600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>39867300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2837,8 +3333,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2872,8 +3377,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2907,43 +3421,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39330200</v>
+        <v>44456900</v>
       </c>
       <c r="E76" s="3">
-        <v>40032600</v>
+        <v>43927700</v>
       </c>
       <c r="F76" s="3">
-        <v>38603200</v>
+        <v>40270200</v>
       </c>
       <c r="G76" s="3">
-        <v>39715100</v>
+        <v>38489300</v>
       </c>
       <c r="H76" s="3">
+        <v>39176600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>37777800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>38865900</v>
+      </c>
+      <c r="K76" s="3">
         <v>37964800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>36434400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>35493000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>39586700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>37335400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>34088600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2977,83 +3509,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1736800</v>
+        <v>1000300</v>
       </c>
       <c r="E81" s="3">
-        <v>1346400</v>
+        <v>7093100</v>
       </c>
       <c r="F81" s="3">
-        <v>3544400</v>
+        <v>1543800</v>
       </c>
       <c r="G81" s="3">
-        <v>1883800</v>
+        <v>2871300</v>
       </c>
       <c r="H81" s="3">
+        <v>1317600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>8190000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1843500</v>
+      </c>
+      <c r="K81" s="3">
         <v>3223500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1499000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>3596000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>2006000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>808800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1042300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3067,43 +3626,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2111600</v>
+        <v>1057400</v>
       </c>
       <c r="E83" s="3">
-        <v>1138800</v>
+        <v>1183600</v>
       </c>
       <c r="F83" s="3">
-        <v>2095900</v>
+        <v>1132000</v>
       </c>
       <c r="G83" s="3">
-        <v>1040100</v>
+        <v>952000</v>
       </c>
       <c r="H83" s="3">
+        <v>1114500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1033200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1017800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2367400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>1177000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>2359500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>1233700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>1470800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>1186700</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3137,8 +3708,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3172,8 +3752,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3207,8 +3796,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3242,8 +3840,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3277,43 +3884,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5031000</v>
+        <v>2193800</v>
       </c>
       <c r="E89" s="3">
-        <v>3287400</v>
+        <v>2136700</v>
       </c>
       <c r="F89" s="3">
-        <v>3876500</v>
+        <v>409600</v>
       </c>
       <c r="G89" s="3">
-        <v>1381200</v>
+        <v>1706300</v>
       </c>
       <c r="H89" s="3">
+        <v>3217100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2442000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1351600</v>
+      </c>
+      <c r="K89" s="3">
         <v>5601000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>4258000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>4265800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>977800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>2204400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>2935700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3327,43 +3952,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2743300</v>
+        <v>-1016700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1098400</v>
+        <v>-1077100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1625800</v>
+        <v>-813600</v>
       </c>
       <c r="G91" s="3">
-        <v>-703500</v>
+        <v>-1609700</v>
       </c>
       <c r="H91" s="3">
+        <v>-1074900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-902600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-688400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2641200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-1081600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-1842300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-900300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-1443800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-1098700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3397,8 +4034,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3432,43 +4078,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11297300</v>
+        <v>-444700</v>
       </c>
       <c r="E94" s="3">
-        <v>-9313600</v>
+        <v>1415300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1946700</v>
+        <v>-919000</v>
       </c>
       <c r="G94" s="3">
-        <v>-711300</v>
+        <v>-1941300</v>
       </c>
       <c r="H94" s="3">
+        <v>-9114500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1208900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-696100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1787300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-1175800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-2653500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-1426200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-4359500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-925000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3482,43 +4146,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>25800</v>
+        <v>-3300</v>
       </c>
       <c r="E96" s="3">
-        <v>-14600</v>
+        <v>-3308300</v>
       </c>
       <c r="F96" s="3">
-        <v>-3415300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-21300</v>
+        <v>39500</v>
       </c>
       <c r="H96" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-3321500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-40400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-4500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-3183100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-16400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3552,8 +4228,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3587,8 +4272,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3622,43 +4316,61 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>522800</v>
+        <v>-1666800</v>
       </c>
       <c r="E100" s="3">
-        <v>438700</v>
+        <v>-4224000</v>
       </c>
       <c r="F100" s="3">
-        <v>-581200</v>
+        <v>680800</v>
       </c>
       <c r="G100" s="3">
-        <v>225500</v>
+        <v>82400</v>
       </c>
       <c r="H100" s="3">
+        <v>429300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-789500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>220700</v>
+      </c>
+      <c r="K100" s="3">
         <v>1436100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-740500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-994100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>975400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-307500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-98600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3692,39 +4404,57 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5809700</v>
+        <v>82400</v>
       </c>
       <c r="E102" s="3">
-        <v>-5587500</v>
+        <v>-672000</v>
       </c>
       <c r="F102" s="3">
-        <v>1348600</v>
+        <v>171300</v>
       </c>
       <c r="G102" s="3">
-        <v>895300</v>
+        <v>-217400</v>
       </c>
       <c r="H102" s="3">
+        <v>-5468000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>443600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>876200</v>
+      </c>
+      <c r="K102" s="3">
         <v>5126400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>2341600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>618200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>527000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-2385200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>1912100</v>
       </c>
     </row>
